--- a/resources/experiment 2/metrics/R2/average time/Angina.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Angina.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9124027940425602</v>
+        <v>0.99539734596513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9124027940425602</v>
+        <v>0.9952256443579341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9124027940425602</v>
+        <v>0.9893748654215145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9918722346877239</v>
+        <v>0.9897778293470486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9918722346877239</v>
+        <v>0.9898259249882889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9918722346877239</v>
+        <v>0.9670764166799234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8447929089890209</v>
+        <v>0.9980523453027329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8447929089890209</v>
+        <v>0.9980006692028729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8447929089890209</v>
+        <v>0.9973938159072008</v>
       </c>
     </row>
   </sheetData>
